--- a/reports/resnet18_23_no_MMTM/prediction/2/prediction_val_2.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/2/prediction_val_2.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
